--- a/Optimization models (Pyomo)/CORDOBA/Tiempo.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/Tiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE79423-0FE8-4796-9833-3D90BDF0E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FB33D-3538-4D62-B090-17D21A4A0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70B4B0A1-A57A-4B47-B383-6746B19D653A}"/>
   </bookViews>
@@ -36,43 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Tiempo</t>
   </si>
@@ -428,73 +392,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F9396-BB37-4D2D-871A-B5152DD3A71F}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
